--- a/planung_taeglich.xlsx
+++ b/planung_taeglich.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TEST\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://siemens-my.sharepoint.com/personal/wolfgang_troescher_siemens_com/Documents/Documents/infoscreen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EAACE07-27A4-4752-A208-E7D9D0C67CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{2EAACE07-27A4-4752-A208-E7D9D0C67CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{838F1DD8-2B0D-4E24-980F-ACC4C259ED59}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{E65BC20A-7012-46B4-93F1-5775AB76A7DE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="16">
   <si>
     <t>Kurs</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>Mittwoch</t>
+  </si>
+  <si>
+    <t>Irgendein Kurs zum Testen</t>
   </si>
 </sst>
 </file>
@@ -488,7 +491,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,7 +596,7 @@
         <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">

--- a/planung_taeglich.xlsx
+++ b/planung_taeglich.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://siemens-my.sharepoint.com/personal/wolfgang_troescher_siemens_com/Documents/Documents/infoscreen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{2EAACE07-27A4-4752-A208-E7D9D0C67CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{838F1DD8-2B0D-4E24-980F-ACC4C259ED59}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{2EAACE07-27A4-4752-A208-E7D9D0C67CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DEF4ED7-7458-497B-9752-87E79F2A9E12}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{E65BC20A-7012-46B4-93F1-5775AB76A7DE}"/>
   </bookViews>
@@ -83,7 +83,7 @@
     <t>Mittwoch</t>
   </si>
   <si>
-    <t>Irgendein Kurs zum Testen</t>
+    <t>Noch ein Kurs</t>
   </si>
 </sst>
 </file>
@@ -491,7 +491,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/planung_taeglich.xlsx
+++ b/planung_taeglich.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://siemens-my.sharepoint.com/personal/wolfgang_troescher_siemens_com/Documents/Documents/infoscreen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{2EAACE07-27A4-4752-A208-E7D9D0C67CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DEF4ED7-7458-497B-9752-87E79F2A9E12}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{2EAACE07-27A4-4752-A208-E7D9D0C67CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{107EB121-FF80-465C-91D0-21E8552D931B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{E65BC20A-7012-46B4-93F1-5775AB76A7DE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
   <si>
     <t>Kurs</t>
   </si>
@@ -68,29 +68,56 @@
     <t>Kurs 3</t>
   </si>
   <si>
-    <t>Kurs 4</t>
-  </si>
-  <si>
     <t>Datum</t>
   </si>
   <si>
-    <t>Montag</t>
-  </si>
-  <si>
-    <t>Dienstag</t>
-  </si>
-  <si>
-    <t>Mittwoch</t>
-  </si>
-  <si>
-    <t>Noch ein Kurs</t>
+    <t>Gruppe X</t>
+  </si>
+  <si>
+    <t>Gruppe Y</t>
+  </si>
+  <si>
+    <t>Gruppe Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ---</t>
+  </si>
+  <si>
+    <t>Gruppe A</t>
+  </si>
+  <si>
+    <t>Gruppe B</t>
+  </si>
+  <si>
+    <t>Gruppe C</t>
+  </si>
+  <si>
+    <t>Gruppe D</t>
+  </si>
+  <si>
+    <t>Kurs A</t>
+  </si>
+  <si>
+    <t>Erste-Hilfe-Kurs</t>
+  </si>
+  <si>
+    <t>Kurs ABC</t>
+  </si>
+  <si>
+    <t>Kurs x</t>
+  </si>
+  <si>
+    <t>Gruppe J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ---</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,6 +129,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -121,7 +154,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -144,16 +177,159 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -491,199 +667,201 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
     <col min="2" max="2" width="35.5703125" customWidth="1"/>
-    <col min="3" max="3" width="37.5703125" customWidth="1"/>
-    <col min="4" max="4" width="39" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
+    <col min="4" max="4" width="43" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>45565</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="D2" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
         <v>45565</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>45565</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="9">
         <v>45565</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11">
         <v>45565</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
+      <c r="C5" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="5">
         <v>45566</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="C6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>45566</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>45566</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11">
+        <v>45566</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>45567</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>45566</v>
-      </c>
-      <c r="B7" s="3" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>45567</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>45566</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>45566</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="C11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
         <v>45567</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>45567</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>45567</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="D12" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11">
         <v>45567</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>10</v>
+      <c r="C13" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/planung_taeglich.xlsx
+++ b/planung_taeglich.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://siemens-my.sharepoint.com/personal/wolfgang_troescher_siemens_com/Documents/Documents/infoscreen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{2EAACE07-27A4-4752-A208-E7D9D0C67CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{107EB121-FF80-465C-91D0-21E8552D931B}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="13_ncr:1_{2EAACE07-27A4-4752-A208-E7D9D0C67CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5E077B8-E880-49BA-807B-BED24B8755DF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{E65BC20A-7012-46B4-93F1-5775AB76A7DE}"/>
+    <workbookView xWindow="6135" yWindow="2820" windowWidth="28800" windowHeight="15435" xr2:uid="{E65BC20A-7012-46B4-93F1-5775AB76A7DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="16">
   <si>
     <t>Kurs</t>
   </si>
@@ -71,18 +71,6 @@
     <t>Datum</t>
   </si>
   <si>
-    <t>Gruppe X</t>
-  </si>
-  <si>
-    <t>Gruppe Y</t>
-  </si>
-  <si>
-    <t>Gruppe Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ---</t>
-  </si>
-  <si>
     <t>Gruppe A</t>
   </si>
   <si>
@@ -95,22 +83,7 @@
     <t>Gruppe D</t>
   </si>
   <si>
-    <t>Kurs A</t>
-  </si>
-  <si>
-    <t>Erste-Hilfe-Kurs</t>
-  </si>
-  <si>
-    <t>Kurs ABC</t>
-  </si>
-  <si>
-    <t>Kurs x</t>
-  </si>
-  <si>
-    <t>Gruppe J</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ---</t>
+    <t>Kurs 4</t>
   </si>
 </sst>
 </file>
@@ -154,7 +127,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -190,146 +163,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -667,7 +511,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,7 +522,7 @@
     <col min="4" max="4" width="43" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
@@ -694,21 +538,21 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
-        <v>45565</v>
-      </c>
-      <c r="B2" s="6" t="s">
+        <v>45600</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
-        <v>45565</v>
+      <c r="A3" s="5">
+        <v>45601</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
@@ -716,13 +560,13 @@
       <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
-        <v>45565</v>
+      <c r="A4" s="5">
+        <v>45602</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
@@ -730,139 +574,142 @@
       <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11">
-        <v>45565</v>
-      </c>
-      <c r="B5" s="12" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>45603</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="14" t="s">
-        <v>14</v>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
-        <v>45566</v>
-      </c>
-      <c r="B6" s="6" t="s">
+        <v>45604</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>20</v>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
-        <v>45566</v>
+      <c r="A7" s="5">
+        <v>45607</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>19</v>
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
-        <v>45566</v>
+      <c r="A8" s="5">
+        <v>45608</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11">
-        <v>45566</v>
-      </c>
-      <c r="B9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>45609</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>22</v>
+      <c r="C9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
-        <v>45567</v>
-      </c>
-      <c r="B10" s="6" t="s">
+        <v>45610</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="8" t="s">
+      <c r="C10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
-        <v>45567</v>
+      <c r="A11" s="5">
+        <v>45611</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
-        <v>45567</v>
+      <c r="A12" s="5">
+        <v>45612</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>45613</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="11">
-        <v>45567</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>20</v>
+      <c r="D13" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="B2:B13" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 

--- a/planung_taeglich.xlsx
+++ b/planung_taeglich.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://siemens-my.sharepoint.com/personal/wolfgang_troescher_siemens_com/Documents/Documents/infoscreen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="51" documentId="13_ncr:1_{2EAACE07-27A4-4752-A208-E7D9D0C67CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5E077B8-E880-49BA-807B-BED24B8755DF}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="13_ncr:1_{2EAACE07-27A4-4752-A208-E7D9D0C67CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F81DA31C-B6A9-473D-8EE4-52ACD134CFE3}"/>
   <bookViews>
     <workbookView xWindow="6135" yWindow="2820" windowWidth="28800" windowHeight="15435" xr2:uid="{E65BC20A-7012-46B4-93F1-5775AB76A7DE}"/>
   </bookViews>
@@ -511,7 +511,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,7 +552,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
-        <v>45601</v>
+        <v>45600</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
@@ -566,7 +566,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
-        <v>45602</v>
+        <v>45600</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
@@ -580,7 +580,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <v>45603</v>
+        <v>45600</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>6</v>
@@ -608,7 +608,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
-        <v>45607</v>
+        <v>45604</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>4</v>
@@ -622,7 +622,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
-        <v>45608</v>
+        <v>45604</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>5</v>
@@ -636,7 +636,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
-        <v>45609</v>
+        <v>45604</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>6</v>
@@ -650,7 +650,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
-        <v>45610</v>
+        <v>45605</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>3</v>
@@ -664,7 +664,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
-        <v>45611</v>
+        <v>45605</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>4</v>
@@ -678,7 +678,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>45612</v>
+        <v>45605</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>5</v>
@@ -692,7 +692,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
-        <v>45613</v>
+        <v>45605</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>6</v>

--- a/planung_taeglich.xlsx
+++ b/planung_taeglich.xlsx
@@ -511,7 +511,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/planung_taeglich.xlsx
+++ b/planung_taeglich.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://siemens-my.sharepoint.com/personal/wolfgang_troescher_siemens_com/Documents/Documents/infoscreen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="13_ncr:1_{2EAACE07-27A4-4752-A208-E7D9D0C67CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F81DA31C-B6A9-473D-8EE4-52ACD134CFE3}"/>
+  <xr:revisionPtr revIDLastSave="191" documentId="13_ncr:1_{2EAACE07-27A4-4752-A208-E7D9D0C67CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22359AC9-FC4A-408E-9BB2-A06F7AF85304}"/>
   <bookViews>
-    <workbookView xWindow="6135" yWindow="2820" windowWidth="28800" windowHeight="15435" xr2:uid="{E65BC20A-7012-46B4-93F1-5775AB76A7DE}"/>
+    <workbookView xWindow="5850" yWindow="1245" windowWidth="28800" windowHeight="15435" xr2:uid="{E65BC20A-7012-46B4-93F1-5775AB76A7DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="14">
   <si>
     <t>Kurs</t>
   </si>
@@ -59,31 +59,25 @@
     <t>10.293</t>
   </si>
   <si>
-    <t>Kurs 1</t>
-  </si>
-  <si>
-    <t>Kurs 2</t>
-  </si>
-  <si>
-    <t>Kurs 3</t>
-  </si>
-  <si>
     <t>Datum</t>
   </si>
   <si>
-    <t>Gruppe A</t>
-  </si>
-  <si>
-    <t>Gruppe B</t>
-  </si>
-  <si>
-    <t>Gruppe C</t>
-  </si>
-  <si>
-    <t>Gruppe D</t>
-  </si>
-  <si>
-    <t>Kurs 4</t>
+    <t>Raum frei</t>
+  </si>
+  <si>
+    <t>FISI/FIAE 2024</t>
+  </si>
+  <si>
+    <t>Datenbanken / SQL</t>
+  </si>
+  <si>
+    <t>Experience Day</t>
+  </si>
+  <si>
+    <t>Ersthelferkurs</t>
+  </si>
+  <si>
+    <t>METR 24</t>
   </si>
 </sst>
 </file>
@@ -127,7 +121,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -163,17 +157,182 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -508,25 +667,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3C33334-0A1A-4F72-99C1-2DFDE56F428C}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="2" width="35.5703125" customWidth="1"/>
+    <col min="2" max="2" width="35.5703125" style="16" customWidth="1"/>
     <col min="3" max="3" width="23.85546875" customWidth="1"/>
     <col min="4" max="4" width="43" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
@@ -540,175 +699,499 @@
       <c r="A2" s="5">
         <v>45600</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="9">
         <v>45600</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="9">
         <v>45600</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="C4" s="1"/>
+      <c r="D4" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11">
         <v>45600</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
+      <c r="C5" s="13"/>
+      <c r="D5" s="14" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
-        <v>45604</v>
-      </c>
-      <c r="B6" s="2" t="s">
+        <v>45601</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>7</v>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>45604</v>
+      <c r="A7" s="9">
+        <v>45601</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="C7" s="1"/>
+      <c r="D7" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>45604</v>
+      <c r="A8" s="9">
+        <v>45601</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>45604</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="C8" s="1"/>
+      <c r="D8" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11">
+        <v>45601</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>15</v>
+      <c r="C9" s="13"/>
+      <c r="D9" s="14" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
-        <v>45605</v>
-      </c>
-      <c r="B10" s="2" t="s">
+        <v>45602</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>7</v>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>45605</v>
+      <c r="A11" s="9">
+        <v>45602</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="C11" s="1"/>
+      <c r="D11" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>45605</v>
+      <c r="A12" s="9">
+        <v>45602</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="1"/>
+      <c r="D12" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11">
+        <v>45602</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>45603</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>45603</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>45603</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="11">
+        <v>45603</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>45604</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>45604</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>45604</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="11">
+        <v>45604</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>45607</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>45607</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>45607</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="11">
+        <v>45607</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D25" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>45608</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>45605</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="D26" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>45608</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>45608</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="11">
+        <v>45608</v>
+      </c>
+      <c r="B29" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>15</v>
+      <c r="C29" s="13"/>
+      <c r="D29" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>45609</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
+        <v>45609</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
+        <v>45609</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="11">
+        <v>45609</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="13"/>
+      <c r="D33" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="17">
+        <v>45610</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="18">
+        <v>45610</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="18">
+        <v>45610</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="19">
+        <v>45610</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="13"/>
+      <c r="D37" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="17">
+        <v>45611</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="18">
+        <v>45611</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="18">
+        <v>45611</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="19">
+        <v>45611</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="13"/>
+      <c r="D41" s="14" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="B2:B13" numberStoredAsText="1"/>
+    <ignoredError sqref="B2:B13 B14:B41" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/planung_taeglich.xlsx
+++ b/planung_taeglich.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://siemens-my.sharepoint.com/personal/wolfgang_troescher_siemens_com/Documents/Documents/infoscreen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="191" documentId="13_ncr:1_{2EAACE07-27A4-4752-A208-E7D9D0C67CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22359AC9-FC4A-408E-9BB2-A06F7AF85304}"/>
+  <xr:revisionPtr revIDLastSave="226" documentId="13_ncr:1_{2EAACE07-27A4-4752-A208-E7D9D0C67CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB31E0B6-7FA1-4352-980F-91C27F678786}"/>
   <bookViews>
     <workbookView xWindow="5850" yWindow="1245" windowWidth="28800" windowHeight="15435" xr2:uid="{E65BC20A-7012-46B4-93F1-5775AB76A7DE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="15">
   <si>
     <t>Kurs</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>METR 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> --</t>
   </si>
 </sst>
 </file>
@@ -121,7 +124,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -157,182 +160,19 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -669,23 +509,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3C33334-0A1A-4F72-99C1-2DFDE56F428C}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="2" width="35.5703125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="35.5703125" style="6" customWidth="1"/>
     <col min="3" max="3" width="23.85546875" customWidth="1"/>
     <col min="4" max="4" width="43" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
@@ -696,494 +536,562 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="A2" s="7">
         <v>45600</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8" t="s">
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+      <c r="A3" s="7">
         <v>45600</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="10" t="s">
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4" s="7">
         <v>45600</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11">
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
         <v>45600</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14" t="s">
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="7">
         <v>45601</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8" t="s">
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="A7" s="7">
         <v>45601</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="10" t="s">
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="A8" s="7">
         <v>45601</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11">
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
         <v>45601</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14" t="s">
+      <c r="C9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="7">
         <v>45602</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8" t="s">
+      <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+      <c r="A11" s="7">
         <v>45602</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="10" t="s">
+      <c r="C11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+      <c r="A12" s="7">
         <v>45602</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="11">
+      <c r="C12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
         <v>45602</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="14" t="s">
+      <c r="C13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="A14" s="7">
         <v>45603</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="8" t="s">
+      <c r="C14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
+      <c r="A15" s="7">
         <v>45603</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="10" t="s">
+      <c r="C15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
+      <c r="A16" s="7">
         <v>45603</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="10" t="s">
+      <c r="C16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="11">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
         <v>45603</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="14" t="s">
+      <c r="C17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+      <c r="A18" s="7">
         <v>45604</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="8" t="s">
+      <c r="C18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
+      <c r="A19" s="7">
         <v>45604</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="10" t="s">
+      <c r="C19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
+      <c r="A20" s="7">
         <v>45604</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="11">
+      <c r="C20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
         <v>45604</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="14" t="s">
+      <c r="C21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
+      <c r="A22" s="7">
         <v>45607</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
+      <c r="A23" s="7">
         <v>45607</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="10" t="s">
+      <c r="C23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
+      <c r="A24" s="7">
         <v>45607</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="11">
+      <c r="C24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
         <v>45607</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
+      <c r="A26" s="7">
         <v>45608</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
+      <c r="A27" s="7">
         <v>45608</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="10" t="s">
+      <c r="C27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
+      <c r="A28" s="7">
         <v>45608</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="11">
+      <c r="C28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="7">
         <v>45608</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="14" t="s">
+      <c r="C29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
+      <c r="A30" s="7">
         <v>45609</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="9">
+      <c r="A31" s="7">
         <v>45609</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="10" t="s">
+      <c r="C31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="9">
+      <c r="A32" s="7">
         <v>45609</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="11">
+      <c r="C32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="7">
         <v>45609</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="14" t="s">
+      <c r="C33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="17">
+      <c r="A34" s="7">
         <v>45610</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="18">
+      <c r="A35" s="7">
         <v>45610</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="10" t="s">
+      <c r="C35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="18">
+      <c r="A36" s="7">
         <v>45610</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="19">
+      <c r="C36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="7">
         <v>45610</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="14" t="s">
+      <c r="C37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="17">
+      <c r="A38" s="7">
         <v>45611</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="18">
+      <c r="A39" s="7">
         <v>45611</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="10" t="s">
+      <c r="C39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="18">
+      <c r="A40" s="7">
         <v>45611</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="19">
+      <c r="C40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="7">
         <v>45611</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C41" s="13"/>
-      <c r="D41" s="14" t="s">
+      <c r="C41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>8</v>
       </c>
     </row>
